--- a/Music and Memory/BehaviouralResults/sevents-ALLDATA.xlsx
+++ b/Music and Memory/BehaviouralResults/sevents-ALLDATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="440" windowWidth="33360" windowHeight="23140" tabRatio="727" activeTab="15"/>
+    <workbookView xWindow="-24240" yWindow="880" windowWidth="19100" windowHeight="17120" tabRatio="727" firstSheet="15" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="2017.10.30-sevents.csv" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,13 @@
     <sheet name="116" sheetId="16" r:id="rId16"/>
     <sheet name="117" sheetId="17" r:id="rId17"/>
     <sheet name="118" sheetId="18" r:id="rId18"/>
+    <sheet name="119" sheetId="19" r:id="rId19"/>
+    <sheet name="120" sheetId="20" r:id="rId20"/>
+    <sheet name="122" sheetId="21" r:id="rId21"/>
+    <sheet name="123" sheetId="22" r:id="rId22"/>
+    <sheet name="124" sheetId="23" r:id="rId23"/>
+    <sheet name="125" sheetId="24" r:id="rId24"/>
+    <sheet name="126" sheetId="25" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017.10.30-sevents.csv'!$B$1:$B$2023</definedName>
@@ -39,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="8">
   <si>
     <t>sid</t>
   </si>
@@ -126,8 +133,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,7 +268,7 @@
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -299,6 +322,14 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -352,6 +383,14 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -45563,7 +45602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
@@ -46475,7 +46514,7 @@
   <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G4" sqref="G4:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -49034,7 +49073,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G4" sqref="G4:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -49641,6 +49680,1580 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>3980</v>
+      </c>
+      <c r="B2">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.81736111111111109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>3981</v>
+      </c>
+      <c r="B3">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8208333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3982</v>
+      </c>
+      <c r="B4">
+        <v>119</v>
+      </c>
+      <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="G4">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF($C$2:$C$88,52)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3983</v>
+      </c>
+      <c r="B5">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF($C$2:$C$88,42)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3984</v>
+      </c>
+      <c r="B6">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF($C$2:$C$88,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>3985</v>
+      </c>
+      <c r="B7">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="G7">
+        <v>132</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF($C$2:$C$88,132)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>3986</v>
+      </c>
+      <c r="B8">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>132</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="G8">
+        <v>122</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($C$2:$C$88,122)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>3987</v>
+      </c>
+      <c r="B9">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="G9">
+        <v>142</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF($C$2:$C$88,142)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>3988</v>
+      </c>
+      <c r="B10">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.84305555555555556</v>
+      </c>
+      <c r="G10">
+        <v>92</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF($C$2:$C$88,92)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>3989</v>
+      </c>
+      <c r="B11">
+        <v>119</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="G11">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF($C$2:$C$88,62)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>3990</v>
+      </c>
+      <c r="B12">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.84930555555555554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>3991</v>
+      </c>
+      <c r="B13">
+        <v>119</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>3992</v>
+      </c>
+      <c r="B14">
+        <v>119</v>
+      </c>
+      <c r="C14">
+        <v>122</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>3993</v>
+      </c>
+      <c r="B15">
+        <v>119</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.027777777777778E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>3994</v>
+      </c>
+      <c r="B16">
+        <v>119</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3995</v>
+      </c>
+      <c r="B17">
+        <v>119</v>
+      </c>
+      <c r="C17">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.7916666666666663E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3996</v>
+      </c>
+      <c r="B18">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4005</v>
+      </c>
+      <c r="B19">
+        <v>119</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>4006</v>
+      </c>
+      <c r="B20">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>4007</v>
+      </c>
+      <c r="B21">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>132</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>4008</v>
+      </c>
+      <c r="B22">
+        <v>119</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4009</v>
+      </c>
+      <c r="B23">
+        <v>119</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4010</v>
+      </c>
+      <c r="B24">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4011</v>
+      </c>
+      <c r="B25">
+        <v>119</v>
+      </c>
+      <c r="C25">
+        <v>142</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4012</v>
+      </c>
+      <c r="B26">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>122</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.98263888888888884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4030</v>
+      </c>
+      <c r="B27">
+        <v>119</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.7104166666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4031</v>
+      </c>
+      <c r="B28">
+        <v>119</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.71388888888888891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4032</v>
+      </c>
+      <c r="B29">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4033</v>
+      </c>
+      <c r="B30">
+        <v>119</v>
+      </c>
+      <c r="C30">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4034</v>
+      </c>
+      <c r="B31">
+        <v>119</v>
+      </c>
+      <c r="C31">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.72361111111111109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4035</v>
+      </c>
+      <c r="B32">
+        <v>119</v>
+      </c>
+      <c r="C32">
+        <v>142</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.72638888888888886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4036</v>
+      </c>
+      <c r="B33">
+        <v>119</v>
+      </c>
+      <c r="C33">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4037</v>
+      </c>
+      <c r="B34">
+        <v>119</v>
+      </c>
+      <c r="C34">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.7319444444444444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>4057</v>
+      </c>
+      <c r="B35">
+        <v>119</v>
+      </c>
+      <c r="C35">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.55347222222222225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4058</v>
+      </c>
+      <c r="B36">
+        <v>119</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.55694444444444446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4060</v>
+      </c>
+      <c r="B37">
+        <v>119</v>
+      </c>
+      <c r="C37">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4061</v>
+      </c>
+      <c r="B38">
+        <v>119</v>
+      </c>
+      <c r="C38">
+        <v>92</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.56527777777777777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4062</v>
+      </c>
+      <c r="B39">
+        <v>119</v>
+      </c>
+      <c r="C39">
+        <v>132</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>4063</v>
+      </c>
+      <c r="B40">
+        <v>119</v>
+      </c>
+      <c r="C40">
+        <v>142</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>4064</v>
+      </c>
+      <c r="B41">
+        <v>119</v>
+      </c>
+      <c r="C41">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>4091</v>
+      </c>
+      <c r="B42">
+        <v>119</v>
+      </c>
+      <c r="C42">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4092</v>
+      </c>
+      <c r="B43">
+        <v>119</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.60555555555555551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>4093</v>
+      </c>
+      <c r="B44">
+        <v>119</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.60902777777777783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>4094</v>
+      </c>
+      <c r="B45">
+        <v>119</v>
+      </c>
+      <c r="C45">
+        <v>122</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.6118055555555556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>4095</v>
+      </c>
+      <c r="B46">
+        <v>119</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.61527777777777781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>4096</v>
+      </c>
+      <c r="B47">
+        <v>119</v>
+      </c>
+      <c r="C47">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>4097</v>
+      </c>
+      <c r="B48">
+        <v>119</v>
+      </c>
+      <c r="C48">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>4098</v>
+      </c>
+      <c r="B49">
+        <v>119</v>
+      </c>
+      <c r="C49">
+        <v>142</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.62430555555555556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>4111</v>
+      </c>
+      <c r="B50">
+        <v>119</v>
+      </c>
+      <c r="C50">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>4112</v>
+      </c>
+      <c r="B51">
+        <v>119</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.74791666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>4113</v>
+      </c>
+      <c r="B52">
+        <v>119</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.75138888888888899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>4114</v>
+      </c>
+      <c r="B53">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <v>132</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.75486111111111109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>4115</v>
+      </c>
+      <c r="B54">
+        <v>119</v>
+      </c>
+      <c r="C54">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.75763888888888886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>4116</v>
+      </c>
+      <c r="B55">
+        <v>119</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>4117</v>
+      </c>
+      <c r="B56">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>142</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>4118</v>
+      </c>
+      <c r="B57">
+        <v>119</v>
+      </c>
+      <c r="C57">
+        <v>122</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>4127</v>
+      </c>
+      <c r="B58">
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>4129</v>
+      </c>
+      <c r="B59">
+        <v>119</v>
+      </c>
+      <c r="C59">
+        <v>132</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>4131</v>
+      </c>
+      <c r="B60">
+        <v>119</v>
+      </c>
+      <c r="C60">
+        <v>42</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>4133</v>
+      </c>
+      <c r="B61">
+        <v>119</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.47500000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>4136</v>
+      </c>
+      <c r="B62">
+        <v>119</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>4138</v>
+      </c>
+      <c r="B63">
+        <v>119</v>
+      </c>
+      <c r="C63">
+        <v>92</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>4139</v>
+      </c>
+      <c r="B64">
+        <v>119</v>
+      </c>
+      <c r="C64">
+        <v>122</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>4141</v>
+      </c>
+      <c r="B65">
+        <v>119</v>
+      </c>
+      <c r="C65">
+        <v>142</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>4162</v>
+      </c>
+      <c r="B66">
+        <v>119</v>
+      </c>
+      <c r="C66">
+        <v>52</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.8208333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>4164</v>
+      </c>
+      <c r="B67">
+        <v>119</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>4165</v>
+      </c>
+      <c r="B68">
+        <v>119</v>
+      </c>
+      <c r="C68">
+        <v>92</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.82777777777777783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>4166</v>
+      </c>
+      <c r="B69">
+        <v>119</v>
+      </c>
+      <c r="C69">
+        <v>62</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>4167</v>
+      </c>
+      <c r="B70">
+        <v>119</v>
+      </c>
+      <c r="C70">
+        <v>122</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.83263888888888893</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>4168</v>
+      </c>
+      <c r="B71">
+        <v>119</v>
+      </c>
+      <c r="C71">
+        <v>132</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>4169</v>
+      </c>
+      <c r="B72">
+        <v>119</v>
+      </c>
+      <c r="C72">
+        <v>142</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.83888888888888891</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>4194</v>
+      </c>
+      <c r="B73">
+        <v>119</v>
+      </c>
+      <c r="C73">
+        <v>62</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>4195</v>
+      </c>
+      <c r="B74">
+        <v>119</v>
+      </c>
+      <c r="C74">
+        <v>42</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>4196</v>
+      </c>
+      <c r="B75">
+        <v>119</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>4198</v>
+      </c>
+      <c r="B76">
+        <v>119</v>
+      </c>
+      <c r="C76">
+        <v>52</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>4202</v>
+      </c>
+      <c r="B77">
+        <v>119</v>
+      </c>
+      <c r="C77">
+        <v>132</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>4204</v>
+      </c>
+      <c r="B78">
+        <v>119</v>
+      </c>
+      <c r="C78">
+        <v>92</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>4207</v>
+      </c>
+      <c r="B79">
+        <v>119</v>
+      </c>
+      <c r="C79">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>4208</v>
+      </c>
+      <c r="B80">
+        <v>119</v>
+      </c>
+      <c r="C80">
+        <v>122</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>4228</v>
+      </c>
+      <c r="B81">
+        <v>119</v>
+      </c>
+      <c r="C81">
+        <v>42</v>
+      </c>
+      <c r="D81" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.82152777777777775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>4229</v>
+      </c>
+      <c r="B82">
+        <v>119</v>
+      </c>
+      <c r="C82">
+        <v>52</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>4230</v>
+      </c>
+      <c r="B83">
+        <v>119</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.82847222222222217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>4231</v>
+      </c>
+      <c r="B84">
+        <v>119</v>
+      </c>
+      <c r="C84">
+        <v>62</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.8305555555555556</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>4232</v>
+      </c>
+      <c r="B85">
+        <v>119</v>
+      </c>
+      <c r="C85">
+        <v>92</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>4233</v>
+      </c>
+      <c r="B86">
+        <v>119</v>
+      </c>
+      <c r="C86">
+        <v>122</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>4234</v>
+      </c>
+      <c r="B87">
+        <v>119</v>
+      </c>
+      <c r="C87">
+        <v>132</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.83958333333333324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>4235</v>
+      </c>
+      <c r="B88">
+        <v>119</v>
+      </c>
+      <c r="C88">
+        <v>142</v>
+      </c>
+      <c r="D88" s="1">
+        <v>43275</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.84236111111111101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -50369,6 +51982,7464 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>4038</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>4039</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.70972222222222225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>4047</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF($C$2:$C$87,22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4049</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF($C$2:$C$87,32)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4050</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF($C$2:$C$87,12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4051</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF($C$2:$C$87,72)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>4052</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="G8">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($C$2:$C$87,112)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>4053</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="G9">
+        <v>152</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF($C$2:$C$87,152)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>4054</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF($C$2:$C$87,102)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4065</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="G11">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF($C$2:$C$87,82)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4066</v>
+      </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>4067</v>
+      </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>4068</v>
+      </c>
+      <c r="B14">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.60138888888888886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>4069</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>152</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>4070</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.6069444444444444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4071</v>
+      </c>
+      <c r="B17">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.61041666666666672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>4072</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4073</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>112</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>4074</v>
+      </c>
+      <c r="B20">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>4075</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>4076</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4077</v>
+      </c>
+      <c r="B23">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4078</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>152</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4079</v>
+      </c>
+      <c r="B25">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4104</v>
+      </c>
+      <c r="B26">
+        <v>120</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.39444444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4105</v>
+      </c>
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.39652777777777781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4106</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>152</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4107</v>
+      </c>
+      <c r="B29">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4108</v>
+      </c>
+      <c r="B30">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4109</v>
+      </c>
+      <c r="B31">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4110</v>
+      </c>
+      <c r="B32">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4125</v>
+      </c>
+      <c r="B33">
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.36319444444444443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4128</v>
+      </c>
+      <c r="B34">
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>112</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.46736111111111112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>4130</v>
+      </c>
+      <c r="B35">
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4132</v>
+      </c>
+      <c r="B36">
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>102</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4135</v>
+      </c>
+      <c r="B37">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4137</v>
+      </c>
+      <c r="B38">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4140</v>
+      </c>
+      <c r="B39">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>4142</v>
+      </c>
+      <c r="B40">
+        <v>120</v>
+      </c>
+      <c r="C40">
+        <v>152</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>4143</v>
+      </c>
+      <c r="B41">
+        <v>120</v>
+      </c>
+      <c r="C41">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.49027777777777781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>4170</v>
+      </c>
+      <c r="B42">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>102</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.86736111111111114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4171</v>
+      </c>
+      <c r="B43">
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.86944444444444446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>4172</v>
+      </c>
+      <c r="B44">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>152</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.87152777777777779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>4173</v>
+      </c>
+      <c r="B45">
+        <v>120</v>
+      </c>
+      <c r="C45">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.87569444444444444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>4174</v>
+      </c>
+      <c r="B46">
+        <v>120</v>
+      </c>
+      <c r="C46">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.88124999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>4175</v>
+      </c>
+      <c r="B47">
+        <v>120</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.89374999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>4176</v>
+      </c>
+      <c r="B48">
+        <v>120</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.89930555555555547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>4177</v>
+      </c>
+      <c r="B49">
+        <v>120</v>
+      </c>
+      <c r="C49">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.91180555555555554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>4197</v>
+      </c>
+      <c r="B50">
+        <v>120</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.51597222222222217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>4200</v>
+      </c>
+      <c r="B51">
+        <v>120</v>
+      </c>
+      <c r="C51">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.51874999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>4201</v>
+      </c>
+      <c r="B52">
+        <v>120</v>
+      </c>
+      <c r="C52">
+        <v>152</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>4209</v>
+      </c>
+      <c r="B53">
+        <v>120</v>
+      </c>
+      <c r="C53">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>4211</v>
+      </c>
+      <c r="B54">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.53402777777777777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>4213</v>
+      </c>
+      <c r="B55">
+        <v>120</v>
+      </c>
+      <c r="C55">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>4216</v>
+      </c>
+      <c r="B56">
+        <v>120</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.5444444444444444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>4217</v>
+      </c>
+      <c r="B57">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>82</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.54722222222222217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>4236</v>
+      </c>
+      <c r="B58">
+        <v>120</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.41388888888888892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>4237</v>
+      </c>
+      <c r="B59">
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <v>82</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>4238</v>
+      </c>
+      <c r="B60">
+        <v>120</v>
+      </c>
+      <c r="C60">
+        <v>72</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>4239</v>
+      </c>
+      <c r="B61">
+        <v>120</v>
+      </c>
+      <c r="C61">
+        <v>112</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.42291666666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>4240</v>
+      </c>
+      <c r="B62">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>4241</v>
+      </c>
+      <c r="B63">
+        <v>120</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>4242</v>
+      </c>
+      <c r="B64">
+        <v>120</v>
+      </c>
+      <c r="C64">
+        <v>152</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>4267</v>
+      </c>
+      <c r="B65">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>4268</v>
+      </c>
+      <c r="B66">
+        <v>120</v>
+      </c>
+      <c r="C66">
+        <v>152</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>4269</v>
+      </c>
+      <c r="B67">
+        <v>120</v>
+      </c>
+      <c r="C67">
+        <v>112</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>4270</v>
+      </c>
+      <c r="B68">
+        <v>120</v>
+      </c>
+      <c r="C68">
+        <v>82</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>4271</v>
+      </c>
+      <c r="B69">
+        <v>120</v>
+      </c>
+      <c r="C69">
+        <v>102</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.49861111111111112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>4272</v>
+      </c>
+      <c r="B70">
+        <v>120</v>
+      </c>
+      <c r="C70">
+        <v>72</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>4273</v>
+      </c>
+      <c r="B71">
+        <v>120</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>4274</v>
+      </c>
+      <c r="B72">
+        <v>120</v>
+      </c>
+      <c r="C72">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.51527777777777783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>4283</v>
+      </c>
+      <c r="B73">
+        <v>120</v>
+      </c>
+      <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.42430555555555555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>4288</v>
+      </c>
+      <c r="B74">
+        <v>120</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>4290</v>
+      </c>
+      <c r="B75">
+        <v>120</v>
+      </c>
+      <c r="C75">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>4292</v>
+      </c>
+      <c r="B76">
+        <v>120</v>
+      </c>
+      <c r="C76">
+        <v>152</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.45208333333333334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>4295</v>
+      </c>
+      <c r="B77">
+        <v>120</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>4296</v>
+      </c>
+      <c r="B78">
+        <v>120</v>
+      </c>
+      <c r="C78">
+        <v>22</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.45902777777777781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>4309</v>
+      </c>
+      <c r="B79">
+        <v>120</v>
+      </c>
+      <c r="C79">
+        <v>32</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.64652777777777781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>4310</v>
+      </c>
+      <c r="B80">
+        <v>120</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.65069444444444446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>4311</v>
+      </c>
+      <c r="B81">
+        <v>120</v>
+      </c>
+      <c r="C81">
+        <v>72</v>
+      </c>
+      <c r="D81" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.65486111111111112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>4312</v>
+      </c>
+      <c r="B82">
+        <v>120</v>
+      </c>
+      <c r="C82">
+        <v>112</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.65763888888888888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>4313</v>
+      </c>
+      <c r="B83">
+        <v>120</v>
+      </c>
+      <c r="C83">
+        <v>102</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.66180555555555554</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>4314</v>
+      </c>
+      <c r="B84">
+        <v>120</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.66527777777777775</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>4315</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
+      <c r="C85">
+        <v>82</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.66736111111111107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>4316</v>
+      </c>
+      <c r="B86">
+        <v>120</v>
+      </c>
+      <c r="C86">
+        <v>152</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>4317</v>
+      </c>
+      <c r="B87">
+        <v>120</v>
+      </c>
+      <c r="C87">
+        <v>32</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>3953</v>
+      </c>
+      <c r="B2">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.55138888888888882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>3954</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
+      </c>
+      <c r="C3">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.55347222222222225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3955</v>
+      </c>
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF($C$2:$C$147,22)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3956</v>
+      </c>
+      <c r="B5">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF($C$2:$C$147,32)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3957</v>
+      </c>
+      <c r="B6">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF($C$2:$C$147,12)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>3958</v>
+      </c>
+      <c r="B7">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF($C$2:$C$147,72)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>3959</v>
+      </c>
+      <c r="B8">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G8">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($C$2:$C$147,112)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>3960</v>
+      </c>
+      <c r="B9">
+        <v>122</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G9">
+        <v>152</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF($C$2:$C$147,152)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>3961</v>
+      </c>
+      <c r="B10">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF($C$2:$C$147,102)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>3962</v>
+      </c>
+      <c r="B11">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G11">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF($C$2:$C$147,82)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>3963</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43258</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>3964</v>
+      </c>
+      <c r="B13">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43259</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>3965</v>
+      </c>
+      <c r="B14">
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43259</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>3966</v>
+      </c>
+      <c r="B15">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43259</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>3967</v>
+      </c>
+      <c r="B16">
+        <v>122</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43259</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3968</v>
+      </c>
+      <c r="B17">
+        <v>122</v>
+      </c>
+      <c r="C17">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43259</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3969</v>
+      </c>
+      <c r="B18">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3970</v>
+      </c>
+      <c r="B19">
+        <v>122</v>
+      </c>
+      <c r="C19">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3971</v>
+      </c>
+      <c r="B20">
+        <v>122</v>
+      </c>
+      <c r="C20">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3972</v>
+      </c>
+      <c r="B21">
+        <v>122</v>
+      </c>
+      <c r="C21">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3973</v>
+      </c>
+      <c r="B22">
+        <v>122</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3974</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3975</v>
+      </c>
+      <c r="B24">
+        <v>122</v>
+      </c>
+      <c r="C24">
+        <v>152</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3976</v>
+      </c>
+      <c r="B25">
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <v>112</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>3977</v>
+      </c>
+      <c r="B26">
+        <v>122</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.48472222222222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>3978</v>
+      </c>
+      <c r="B27">
+        <v>122</v>
+      </c>
+      <c r="C27">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>3979</v>
+      </c>
+      <c r="B28">
+        <v>122</v>
+      </c>
+      <c r="C28">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43260</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.49027777777777781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>3997</v>
+      </c>
+      <c r="B29">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3998</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>3999</v>
+      </c>
+      <c r="B31">
+        <v>122</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.51180555555555551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>122</v>
+      </c>
+      <c r="C32">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4001</v>
+      </c>
+      <c r="B33">
+        <v>122</v>
+      </c>
+      <c r="C33">
+        <v>112</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4002</v>
+      </c>
+      <c r="B34">
+        <v>122</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>4003</v>
+      </c>
+      <c r="B35">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4004</v>
+      </c>
+      <c r="B36">
+        <v>122</v>
+      </c>
+      <c r="C36">
+        <v>152</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43262</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4013</v>
+      </c>
+      <c r="B37">
+        <v>122</v>
+      </c>
+      <c r="C37">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.57847222222222217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4014</v>
+      </c>
+      <c r="B38">
+        <v>122</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.58194444444444449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4015</v>
+      </c>
+      <c r="B39">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.58472222222222225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>4016</v>
+      </c>
+      <c r="B40">
+        <v>122</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.58819444444444446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>4017</v>
+      </c>
+      <c r="B41">
+        <v>122</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.59166666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>4018</v>
+      </c>
+      <c r="B42">
+        <v>122</v>
+      </c>
+      <c r="C42">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.59444444444444444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4019</v>
+      </c>
+      <c r="B43">
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <v>152</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>4020</v>
+      </c>
+      <c r="B44">
+        <v>122</v>
+      </c>
+      <c r="C44">
+        <v>112</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>4021</v>
+      </c>
+      <c r="B45">
+        <v>122</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.60277777777777775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>4022</v>
+      </c>
+      <c r="B46">
+        <v>122</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>4023</v>
+      </c>
+      <c r="B47">
+        <v>122</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>4024</v>
+      </c>
+      <c r="B48">
+        <v>122</v>
+      </c>
+      <c r="C48">
+        <v>152</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>4025</v>
+      </c>
+      <c r="B49">
+        <v>122</v>
+      </c>
+      <c r="C49">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>4026</v>
+      </c>
+      <c r="B50">
+        <v>122</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>4027</v>
+      </c>
+      <c r="B51">
+        <v>122</v>
+      </c>
+      <c r="C51">
+        <v>82</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>4028</v>
+      </c>
+      <c r="B52">
+        <v>122</v>
+      </c>
+      <c r="C52">
+        <v>102</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>4029</v>
+      </c>
+      <c r="B53">
+        <v>122</v>
+      </c>
+      <c r="C53">
+        <v>112</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43264</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>4040</v>
+      </c>
+      <c r="B54">
+        <v>122</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>4041</v>
+      </c>
+      <c r="B55">
+        <v>122</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>4042</v>
+      </c>
+      <c r="B56">
+        <v>122</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>4043</v>
+      </c>
+      <c r="B57">
+        <v>122</v>
+      </c>
+      <c r="C57">
+        <v>72</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>4044</v>
+      </c>
+      <c r="B58">
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>102</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>4045</v>
+      </c>
+      <c r="B59">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>82</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.57847222222222217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>4046</v>
+      </c>
+      <c r="B60">
+        <v>122</v>
+      </c>
+      <c r="C60">
+        <v>152</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.5805555555555556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>4048</v>
+      </c>
+      <c r="B61">
+        <v>122</v>
+      </c>
+      <c r="C61">
+        <v>112</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43265</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>4055</v>
+      </c>
+      <c r="B62">
+        <v>122</v>
+      </c>
+      <c r="C62">
+        <v>102</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.53541666666666665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>4056</v>
+      </c>
+      <c r="B63">
+        <v>122</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.53888888888888886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>4059</v>
+      </c>
+      <c r="B64">
+        <v>122</v>
+      </c>
+      <c r="C64">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>4080</v>
+      </c>
+      <c r="B65">
+        <v>122</v>
+      </c>
+      <c r="C65">
+        <v>72</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>4081</v>
+      </c>
+      <c r="B66">
+        <v>122</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.5395833333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>4082</v>
+      </c>
+      <c r="B67">
+        <v>122</v>
+      </c>
+      <c r="C67">
+        <v>82</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>4083</v>
+      </c>
+      <c r="B68">
+        <v>122</v>
+      </c>
+      <c r="C68">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>4084</v>
+      </c>
+      <c r="B69">
+        <v>122</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>4085</v>
+      </c>
+      <c r="B70">
+        <v>122</v>
+      </c>
+      <c r="C70">
+        <v>112</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.55138888888888882</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>4086</v>
+      </c>
+      <c r="B71">
+        <v>122</v>
+      </c>
+      <c r="C71">
+        <v>102</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>4087</v>
+      </c>
+      <c r="B72">
+        <v>122</v>
+      </c>
+      <c r="C72">
+        <v>152</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>4088</v>
+      </c>
+      <c r="B73">
+        <v>122</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>4089</v>
+      </c>
+      <c r="B74">
+        <v>122</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>4090</v>
+      </c>
+      <c r="B75">
+        <v>122</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43269</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>4099</v>
+      </c>
+      <c r="B76">
+        <v>122</v>
+      </c>
+      <c r="C76">
+        <v>32</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.29236111111111113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>4100</v>
+      </c>
+      <c r="B77">
+        <v>122</v>
+      </c>
+      <c r="C77">
+        <v>152</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>4101</v>
+      </c>
+      <c r="B78">
+        <v>122</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>4102</v>
+      </c>
+      <c r="B79">
+        <v>122</v>
+      </c>
+      <c r="C79">
+        <v>112</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.30972222222222223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>4103</v>
+      </c>
+      <c r="B80">
+        <v>122</v>
+      </c>
+      <c r="C80">
+        <v>22</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43270</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.31388888888888888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>4119</v>
+      </c>
+      <c r="B81">
+        <v>122</v>
+      </c>
+      <c r="C81">
+        <v>82</v>
+      </c>
+      <c r="D81" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.31875000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>4120</v>
+      </c>
+      <c r="B82">
+        <v>122</v>
+      </c>
+      <c r="C82">
+        <v>22</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.32222222222222224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>4121</v>
+      </c>
+      <c r="B83">
+        <v>122</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.32708333333333334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>4122</v>
+      </c>
+      <c r="B84">
+        <v>122</v>
+      </c>
+      <c r="C84">
+        <v>72</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.33055555555555555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>4123</v>
+      </c>
+      <c r="B85">
+        <v>122</v>
+      </c>
+      <c r="C85">
+        <v>112</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.33263888888888887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>4124</v>
+      </c>
+      <c r="B86">
+        <v>122</v>
+      </c>
+      <c r="C86">
+        <v>152</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.3354166666666667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>4126</v>
+      </c>
+      <c r="B87">
+        <v>122</v>
+      </c>
+      <c r="C87">
+        <v>32</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>4144</v>
+      </c>
+      <c r="B88">
+        <v>122</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>4145</v>
+      </c>
+      <c r="B89">
+        <v>122</v>
+      </c>
+      <c r="C89">
+        <v>82</v>
+      </c>
+      <c r="D89" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>4155</v>
+      </c>
+      <c r="B90">
+        <v>122</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.7583333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>4156</v>
+      </c>
+      <c r="B91">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+      <c r="D91" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.76180555555555562</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>4157</v>
+      </c>
+      <c r="B92">
+        <v>122</v>
+      </c>
+      <c r="C92">
+        <v>32</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.76597222222222217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>4158</v>
+      </c>
+      <c r="B93">
+        <v>122</v>
+      </c>
+      <c r="C93">
+        <v>72</v>
+      </c>
+      <c r="D93" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.76944444444444438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>4159</v>
+      </c>
+      <c r="B94">
+        <v>122</v>
+      </c>
+      <c r="C94">
+        <v>112</v>
+      </c>
+      <c r="D94" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.77222222222222225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>4160</v>
+      </c>
+      <c r="B95">
+        <v>122</v>
+      </c>
+      <c r="C95">
+        <v>152</v>
+      </c>
+      <c r="D95" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>4161</v>
+      </c>
+      <c r="B96">
+        <v>122</v>
+      </c>
+      <c r="C96">
+        <v>82</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.77708333333333324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>4163</v>
+      </c>
+      <c r="B97">
+        <v>122</v>
+      </c>
+      <c r="C97">
+        <v>102</v>
+      </c>
+      <c r="D97" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.77986111111111101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>4178</v>
+      </c>
+      <c r="B98">
+        <v>122</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+      <c r="D98" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.4291666666666667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>4179</v>
+      </c>
+      <c r="B99">
+        <v>122</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.43263888888888885</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>4180</v>
+      </c>
+      <c r="B100">
+        <v>122</v>
+      </c>
+      <c r="C100">
+        <v>82</v>
+      </c>
+      <c r="D100" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>4181</v>
+      </c>
+      <c r="B101">
+        <v>122</v>
+      </c>
+      <c r="C101">
+        <v>72</v>
+      </c>
+      <c r="D101" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.4381944444444445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>4182</v>
+      </c>
+      <c r="B102">
+        <v>122</v>
+      </c>
+      <c r="C102">
+        <v>152</v>
+      </c>
+      <c r="D102" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>4183</v>
+      </c>
+      <c r="B103">
+        <v>122</v>
+      </c>
+      <c r="C103">
+        <v>32</v>
+      </c>
+      <c r="D103" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>4184</v>
+      </c>
+      <c r="B104">
+        <v>122</v>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>4185</v>
+      </c>
+      <c r="B105">
+        <v>122</v>
+      </c>
+      <c r="C105">
+        <v>112</v>
+      </c>
+      <c r="D105" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>4186</v>
+      </c>
+      <c r="B106">
+        <v>122</v>
+      </c>
+      <c r="C106">
+        <v>22</v>
+      </c>
+      <c r="D106" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>4187</v>
+      </c>
+      <c r="B107">
+        <v>122</v>
+      </c>
+      <c r="C107">
+        <v>32</v>
+      </c>
+      <c r="D107" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>4188</v>
+      </c>
+      <c r="B108">
+        <v>122</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>4189</v>
+      </c>
+      <c r="B109">
+        <v>122</v>
+      </c>
+      <c r="C109">
+        <v>82</v>
+      </c>
+      <c r="D109" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>4190</v>
+      </c>
+      <c r="B110">
+        <v>122</v>
+      </c>
+      <c r="C110">
+        <v>102</v>
+      </c>
+      <c r="D110" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>4191</v>
+      </c>
+      <c r="B111">
+        <v>122</v>
+      </c>
+      <c r="C111">
+        <v>152</v>
+      </c>
+      <c r="D111" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>4192</v>
+      </c>
+      <c r="B112">
+        <v>122</v>
+      </c>
+      <c r="C112">
+        <v>112</v>
+      </c>
+      <c r="D112" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0.47638888888888892</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>4193</v>
+      </c>
+      <c r="B113">
+        <v>122</v>
+      </c>
+      <c r="C113">
+        <v>72</v>
+      </c>
+      <c r="D113" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>4243</v>
+      </c>
+      <c r="B114">
+        <v>122</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
+      </c>
+      <c r="D114" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>4244</v>
+      </c>
+      <c r="B115">
+        <v>122</v>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
+      <c r="D115" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>4245</v>
+      </c>
+      <c r="B116">
+        <v>122</v>
+      </c>
+      <c r="C116">
+        <v>32</v>
+      </c>
+      <c r="D116" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>4246</v>
+      </c>
+      <c r="B117">
+        <v>122</v>
+      </c>
+      <c r="C117">
+        <v>112</v>
+      </c>
+      <c r="D117" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>4247</v>
+      </c>
+      <c r="B118">
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>72</v>
+      </c>
+      <c r="D118" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>4248</v>
+      </c>
+      <c r="B119">
+        <v>122</v>
+      </c>
+      <c r="C119">
+        <v>102</v>
+      </c>
+      <c r="D119" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>4249</v>
+      </c>
+      <c r="B120">
+        <v>122</v>
+      </c>
+      <c r="C120">
+        <v>82</v>
+      </c>
+      <c r="D120" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.45902777777777781</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>4250</v>
+      </c>
+      <c r="B121">
+        <v>122</v>
+      </c>
+      <c r="C121">
+        <v>152</v>
+      </c>
+      <c r="D121" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>4251</v>
+      </c>
+      <c r="B122">
+        <v>122</v>
+      </c>
+      <c r="C122">
+        <v>82</v>
+      </c>
+      <c r="D122" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.46388888888888885</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>4260</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>4261</v>
+      </c>
+      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="C124">
+        <v>152</v>
+      </c>
+      <c r="D124" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>4262</v>
+      </c>
+      <c r="B125">
+        <v>122</v>
+      </c>
+      <c r="C125">
+        <v>22</v>
+      </c>
+      <c r="D125" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>4263</v>
+      </c>
+      <c r="B126">
+        <v>122</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+      <c r="D126" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>4264</v>
+      </c>
+      <c r="B127">
+        <v>122</v>
+      </c>
+      <c r="C127">
+        <v>82</v>
+      </c>
+      <c r="D127" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>4265</v>
+      </c>
+      <c r="B128">
+        <v>122</v>
+      </c>
+      <c r="C128">
+        <v>102</v>
+      </c>
+      <c r="D128" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.38472222222222219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>4266</v>
+      </c>
+      <c r="B129">
+        <v>122</v>
+      </c>
+      <c r="C129">
+        <v>72</v>
+      </c>
+      <c r="D129" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>4284</v>
+      </c>
+      <c r="B130">
+        <v>122</v>
+      </c>
+      <c r="C130">
+        <v>152</v>
+      </c>
+      <c r="D130" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>4285</v>
+      </c>
+      <c r="B131">
+        <v>122</v>
+      </c>
+      <c r="C131">
+        <v>32</v>
+      </c>
+      <c r="D131" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>4286</v>
+      </c>
+      <c r="B132">
+        <v>122</v>
+      </c>
+      <c r="C132">
+        <v>72</v>
+      </c>
+      <c r="D132" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>4287</v>
+      </c>
+      <c r="B133">
+        <v>122</v>
+      </c>
+      <c r="C133">
+        <v>22</v>
+      </c>
+      <c r="D133" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0.4368055555555555</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>4289</v>
+      </c>
+      <c r="B134">
+        <v>122</v>
+      </c>
+      <c r="C134">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>4291</v>
+      </c>
+      <c r="B135">
+        <v>122</v>
+      </c>
+      <c r="C135">
+        <v>102</v>
+      </c>
+      <c r="D135" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>4293</v>
+      </c>
+      <c r="B136">
+        <v>122</v>
+      </c>
+      <c r="C136">
+        <v>112</v>
+      </c>
+      <c r="D136" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>4294</v>
+      </c>
+      <c r="B137">
+        <v>122</v>
+      </c>
+      <c r="C137">
+        <v>82</v>
+      </c>
+      <c r="D137" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>4299</v>
+      </c>
+      <c r="B138">
+        <v>122</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>4300</v>
+      </c>
+      <c r="B139">
+        <v>122</v>
+      </c>
+      <c r="C139">
+        <v>22</v>
+      </c>
+      <c r="D139" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>4301</v>
+      </c>
+      <c r="B140">
+        <v>122</v>
+      </c>
+      <c r="C140">
+        <v>32</v>
+      </c>
+      <c r="D140" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>4302</v>
+      </c>
+      <c r="B141">
+        <v>122</v>
+      </c>
+      <c r="C141">
+        <v>72</v>
+      </c>
+      <c r="D141" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>4303</v>
+      </c>
+      <c r="B142">
+        <v>122</v>
+      </c>
+      <c r="C142">
+        <v>82</v>
+      </c>
+      <c r="D142" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>4304</v>
+      </c>
+      <c r="B143">
+        <v>122</v>
+      </c>
+      <c r="C143">
+        <v>152</v>
+      </c>
+      <c r="D143" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E143" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>4305</v>
+      </c>
+      <c r="B144">
+        <v>122</v>
+      </c>
+      <c r="C144">
+        <v>102</v>
+      </c>
+      <c r="D144" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>4306</v>
+      </c>
+      <c r="B145">
+        <v>122</v>
+      </c>
+      <c r="C145">
+        <v>112</v>
+      </c>
+      <c r="D145" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>4307</v>
+      </c>
+      <c r="B146">
+        <v>122</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>4308</v>
+      </c>
+      <c r="B147">
+        <v>122</v>
+      </c>
+      <c r="C147">
+        <v>72</v>
+      </c>
+      <c r="D147" s="1">
+        <v>43279</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>4407</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43290</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.98888888888888893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>4408</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43290</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.99236111111111114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>4409</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43290</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99583333333333324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4410</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43290</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.99861111111111101</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF($C$2:$C$52,52)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4411</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF($C$2:$C$52,42)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4412</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF($C$2:$C$52,2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>4413</v>
+      </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G8">
+        <v>132</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($C$2:$C$52,132)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>4414</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="G9">
+        <v>122</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF($C$2:$C$52,122)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>4415</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G10">
+        <v>142</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF($C$2:$C$52,142)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4416</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G11">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF($C$2:$C$52,92)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4417</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G12">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF($C$2:$C$52,62)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>4418</v>
+      </c>
+      <c r="B13">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>122</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.52916666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>4419</v>
+      </c>
+      <c r="B14">
+        <v>123</v>
+      </c>
+      <c r="C14">
+        <v>142</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43291</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>4428</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.77708333333333324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>4429</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.77916666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4430</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>4431</v>
+      </c>
+      <c r="B18">
+        <v>123</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.79791666666666661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4432</v>
+      </c>
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.80069444444444438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>4433</v>
+      </c>
+      <c r="B20">
+        <v>123</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>4434</v>
+      </c>
+      <c r="B21">
+        <v>123</v>
+      </c>
+      <c r="C21">
+        <v>132</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.80833333333333324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>4435</v>
+      </c>
+      <c r="B22">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43293</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.81041666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4436</v>
+      </c>
+      <c r="B23">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43294</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4437</v>
+      </c>
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43294</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4438</v>
+      </c>
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43294</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4439</v>
+      </c>
+      <c r="B26">
+        <v>123</v>
+      </c>
+      <c r="C26">
+        <v>132</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43294</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.52847222222222223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4448</v>
+      </c>
+      <c r="B27">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43296</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4449</v>
+      </c>
+      <c r="B28">
+        <v>123</v>
+      </c>
+      <c r="C28">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43296</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4450</v>
+      </c>
+      <c r="B29">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43296</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4451</v>
+      </c>
+      <c r="B30">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43296</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4460</v>
+      </c>
+      <c r="B31">
+        <v>123</v>
+      </c>
+      <c r="C31">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43296</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.99722222222222223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4461</v>
+      </c>
+      <c r="B32">
+        <v>123</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4462</v>
+      </c>
+      <c r="B33">
+        <v>123</v>
+      </c>
+      <c r="C33">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4463</v>
+      </c>
+      <c r="B34">
+        <v>123</v>
+      </c>
+      <c r="C34">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>4464</v>
+      </c>
+      <c r="B35">
+        <v>123</v>
+      </c>
+      <c r="C35">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4465</v>
+      </c>
+      <c r="B36">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <v>92</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4466</v>
+      </c>
+      <c r="B37">
+        <v>123</v>
+      </c>
+      <c r="C37">
+        <v>132</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4467</v>
+      </c>
+      <c r="B38">
+        <v>123</v>
+      </c>
+      <c r="C38">
+        <v>142</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4468</v>
+      </c>
+      <c r="B39">
+        <v>123</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4.7916666666666663E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>4469</v>
+      </c>
+      <c r="B40">
+        <v>123</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>4470</v>
+      </c>
+      <c r="B41">
+        <v>123</v>
+      </c>
+      <c r="C41">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6.3194444444444442E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>4495</v>
+      </c>
+      <c r="B42">
+        <v>123</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.6118055555555556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4496</v>
+      </c>
+      <c r="B43">
+        <v>123</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.61527777777777781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>4497</v>
+      </c>
+      <c r="B44">
+        <v>123</v>
+      </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>4498</v>
+      </c>
+      <c r="B45">
+        <v>123</v>
+      </c>
+      <c r="C45">
+        <v>92</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.63055555555555554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>4508</v>
+      </c>
+      <c r="B46">
+        <v>123</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43301</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>4509</v>
+      </c>
+      <c r="B47">
+        <v>123</v>
+      </c>
+      <c r="C47">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43301</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>4510</v>
+      </c>
+      <c r="B48">
+        <v>123</v>
+      </c>
+      <c r="C48">
+        <v>62</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43301</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>4511</v>
+      </c>
+      <c r="B49">
+        <v>123</v>
+      </c>
+      <c r="C49">
+        <v>142</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43301</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.4368055555555555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>4512</v>
+      </c>
+      <c r="B50">
+        <v>123</v>
+      </c>
+      <c r="C50">
+        <v>132</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43301</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>4513</v>
+      </c>
+      <c r="B51">
+        <v>123</v>
+      </c>
+      <c r="C51">
+        <v>122</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43301</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>4514</v>
+      </c>
+      <c r="B52">
+        <v>123</v>
+      </c>
+      <c r="C52">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43301</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>4344</v>
+      </c>
+      <c r="B2">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.79722222222222217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>4345</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.80138888888888893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>4346</v>
+      </c>
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF($C$2:$C$39,22)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4356</v>
+      </c>
+      <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF($C$2:$C$39,32)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4357</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF($C$2:$C$39,12)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4358</v>
+      </c>
+      <c r="B7">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF($C$2:$C$39,72)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>4359</v>
+      </c>
+      <c r="B8">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G8">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($C$2:$C$39,112)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>4363</v>
+      </c>
+      <c r="B9">
+        <v>124</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="G9">
+        <v>152</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF($C$2:$C$39,152)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>4364</v>
+      </c>
+      <c r="B10">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF($C$2:$C$39,102)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4369</v>
+      </c>
+      <c r="B11">
+        <v>124</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="G11">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF($C$2:$C$39,82)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4370</v>
+      </c>
+      <c r="B12">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>112</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.83888888888888891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>4372</v>
+      </c>
+      <c r="B13">
+        <v>124</v>
+      </c>
+      <c r="C13">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.84097222222222223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>4374</v>
+      </c>
+      <c r="B14">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>4376</v>
+      </c>
+      <c r="B15">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>4420</v>
+      </c>
+      <c r="B16">
+        <v>124</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43292</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4421</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43292</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>4424</v>
+      </c>
+      <c r="B18">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43292</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4474</v>
+      </c>
+      <c r="B19">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.73125000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>4475</v>
+      </c>
+      <c r="B20">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.73472222222222217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>4476</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+      <c r="C21">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.73749999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>4477</v>
+      </c>
+      <c r="B22">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.74097222222222225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4478</v>
+      </c>
+      <c r="B23">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4479</v>
+      </c>
+      <c r="B24">
+        <v>124</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4480</v>
+      </c>
+      <c r="B25">
+        <v>124</v>
+      </c>
+      <c r="C25">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4481</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>112</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.84236111111111101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4482</v>
+      </c>
+      <c r="B27">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4483</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>152</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.84861111111111109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4484</v>
+      </c>
+      <c r="B29">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.8534722222222223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4485</v>
+      </c>
+      <c r="B30">
+        <v>124</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.8569444444444444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4486</v>
+      </c>
+      <c r="B31">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43298</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.85902777777777783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4487</v>
+      </c>
+      <c r="B32">
+        <v>124</v>
+      </c>
+      <c r="C32">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.26944444444444443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4488</v>
+      </c>
+      <c r="B33">
+        <v>124</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.27291666666666664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4489</v>
+      </c>
+      <c r="B34">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.27638888888888885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>4490</v>
+      </c>
+      <c r="B35">
+        <v>124</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.28055555555555556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4491</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4492</v>
+      </c>
+      <c r="B37">
+        <v>124</v>
+      </c>
+      <c r="C37">
+        <v>102</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.28611111111111115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4493</v>
+      </c>
+      <c r="B38">
+        <v>124</v>
+      </c>
+      <c r="C38">
+        <v>152</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4494</v>
+      </c>
+      <c r="B39">
+        <v>124</v>
+      </c>
+      <c r="C39">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43299</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.29236111111111113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>4134</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43271</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>4146</v>
+      </c>
+      <c r="B3">
+        <v>125</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.54236111111111118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>4147</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.54583333333333328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4148</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF($C$2:$C$89,52)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4149</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF($C$2:$C$89,42)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4150</v>
+      </c>
+      <c r="B7">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF($C$2:$C$89,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>4151</v>
+      </c>
+      <c r="B8">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="G8">
+        <v>132</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($C$2:$C$89,132)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>4152</v>
+      </c>
+      <c r="B9">
+        <v>125</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G9">
+        <v>122</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF($C$2:$C$89,122)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>4153</v>
+      </c>
+      <c r="B10">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="G10">
+        <v>142</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF($C$2:$C$89,142)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4154</v>
+      </c>
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43272</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="G11">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF($C$2:$C$89,92)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4199</v>
+      </c>
+      <c r="B12">
+        <v>125</v>
+      </c>
+      <c r="C12">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G12">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF($C$2:$C$89,62)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>4203</v>
+      </c>
+      <c r="B13">
+        <v>125</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>4205</v>
+      </c>
+      <c r="B14">
+        <v>125</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>4206</v>
+      </c>
+      <c r="B15">
+        <v>125</v>
+      </c>
+      <c r="C15">
+        <v>122</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>4210</v>
+      </c>
+      <c r="B16">
+        <v>125</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4212</v>
+      </c>
+      <c r="B17">
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.53402777777777777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>4214</v>
+      </c>
+      <c r="B18">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>142</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4215</v>
+      </c>
+      <c r="B19">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>132</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>4218</v>
+      </c>
+      <c r="B20">
+        <v>125</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.5395833333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>4219</v>
+      </c>
+      <c r="B21">
+        <v>125</v>
+      </c>
+      <c r="C21">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.54236111111111118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>4220</v>
+      </c>
+      <c r="B22">
+        <v>125</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.54583333333333328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4221</v>
+      </c>
+      <c r="B23">
+        <v>125</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4222</v>
+      </c>
+      <c r="B24">
+        <v>125</v>
+      </c>
+      <c r="C24">
+        <v>122</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4223</v>
+      </c>
+      <c r="B25">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4224</v>
+      </c>
+      <c r="B26">
+        <v>125</v>
+      </c>
+      <c r="C26">
+        <v>132</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4225</v>
+      </c>
+      <c r="B27">
+        <v>125</v>
+      </c>
+      <c r="C27">
+        <v>142</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4226</v>
+      </c>
+      <c r="B28">
+        <v>125</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.56458333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4227</v>
+      </c>
+      <c r="B29">
+        <v>125</v>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43274</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4252</v>
+      </c>
+      <c r="B30">
+        <v>125</v>
+      </c>
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4253</v>
+      </c>
+      <c r="B31">
+        <v>125</v>
+      </c>
+      <c r="C31">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4254</v>
+      </c>
+      <c r="B32">
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4255</v>
+      </c>
+      <c r="B33">
+        <v>125</v>
+      </c>
+      <c r="C33">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.47638888888888892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4256</v>
+      </c>
+      <c r="B34">
+        <v>125</v>
+      </c>
+      <c r="C34">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>4257</v>
+      </c>
+      <c r="B35">
+        <v>125</v>
+      </c>
+      <c r="C35">
+        <v>132</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4258</v>
+      </c>
+      <c r="B36">
+        <v>125</v>
+      </c>
+      <c r="C36">
+        <v>122</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4259</v>
+      </c>
+      <c r="B37">
+        <v>125</v>
+      </c>
+      <c r="C37">
+        <v>142</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43276</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4275</v>
+      </c>
+      <c r="B38">
+        <v>125</v>
+      </c>
+      <c r="C38">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.92222222222222217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4276</v>
+      </c>
+      <c r="B39">
+        <v>125</v>
+      </c>
+      <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>4277</v>
+      </c>
+      <c r="B40">
+        <v>125</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.93055555555555547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>4278</v>
+      </c>
+      <c r="B41">
+        <v>125</v>
+      </c>
+      <c r="C41">
+        <v>62</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>4279</v>
+      </c>
+      <c r="B42">
+        <v>125</v>
+      </c>
+      <c r="C42">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.93611111111111101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4280</v>
+      </c>
+      <c r="B43">
+        <v>125</v>
+      </c>
+      <c r="C43">
+        <v>132</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>4281</v>
+      </c>
+      <c r="B44">
+        <v>125</v>
+      </c>
+      <c r="C44">
+        <v>142</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>4282</v>
+      </c>
+      <c r="B45">
+        <v>125</v>
+      </c>
+      <c r="C45">
+        <v>122</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43277</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>4297</v>
+      </c>
+      <c r="B46">
+        <v>125</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.7402777777777777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>4298</v>
+      </c>
+      <c r="B47">
+        <v>125</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43278</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.74375000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>4318</v>
+      </c>
+      <c r="B48">
+        <v>125</v>
+      </c>
+      <c r="C48">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>4319</v>
+      </c>
+      <c r="B49">
+        <v>125</v>
+      </c>
+      <c r="C49">
+        <v>92</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>4320</v>
+      </c>
+      <c r="B50">
+        <v>125</v>
+      </c>
+      <c r="C50">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>4321</v>
+      </c>
+      <c r="B51">
+        <v>125</v>
+      </c>
+      <c r="C51">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.60277777777777775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>4322</v>
+      </c>
+      <c r="B52">
+        <v>125</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.6069444444444444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>4323</v>
+      </c>
+      <c r="B53">
+        <v>125</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.61041666666666672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>4324</v>
+      </c>
+      <c r="B54">
+        <v>125</v>
+      </c>
+      <c r="C54">
+        <v>132</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.61388888888888882</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>4325</v>
+      </c>
+      <c r="B55">
+        <v>125</v>
+      </c>
+      <c r="C55">
+        <v>142</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>4326</v>
+      </c>
+      <c r="B56">
+        <v>125</v>
+      </c>
+      <c r="C56">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.62013888888888891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>4327</v>
+      </c>
+      <c r="B57">
+        <v>125</v>
+      </c>
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.4381944444444445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>4328</v>
+      </c>
+      <c r="B58">
+        <v>125</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>4329</v>
+      </c>
+      <c r="B59">
+        <v>125</v>
+      </c>
+      <c r="C59">
+        <v>52</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.44513888888888892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>4330</v>
+      </c>
+      <c r="B60">
+        <v>125</v>
+      </c>
+      <c r="C60">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>4331</v>
+      </c>
+      <c r="B61">
+        <v>125</v>
+      </c>
+      <c r="C61">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>4332</v>
+      </c>
+      <c r="B62">
+        <v>125</v>
+      </c>
+      <c r="C62">
+        <v>42</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>4333</v>
+      </c>
+      <c r="B63">
+        <v>125</v>
+      </c>
+      <c r="C63">
+        <v>132</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.45763888888888887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>4334</v>
+      </c>
+      <c r="B64">
+        <v>125</v>
+      </c>
+      <c r="C64">
+        <v>142</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>4335</v>
+      </c>
+      <c r="B65">
+        <v>125</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>4336</v>
+      </c>
+      <c r="B66">
+        <v>125</v>
+      </c>
+      <c r="C66">
+        <v>52</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.39652777777777781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>4337</v>
+      </c>
+      <c r="B67">
+        <v>125</v>
+      </c>
+      <c r="C67">
+        <v>42</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>4338</v>
+      </c>
+      <c r="B68">
+        <v>125</v>
+      </c>
+      <c r="C68">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>4339</v>
+      </c>
+      <c r="B69">
+        <v>125</v>
+      </c>
+      <c r="C69">
+        <v>92</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.40486111111111112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>4340</v>
+      </c>
+      <c r="B70">
+        <v>125</v>
+      </c>
+      <c r="C70">
+        <v>122</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.40763888888888888</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>4341</v>
+      </c>
+      <c r="B71">
+        <v>125</v>
+      </c>
+      <c r="C71">
+        <v>132</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.41180555555555554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>4342</v>
+      </c>
+      <c r="B72">
+        <v>125</v>
+      </c>
+      <c r="C72">
+        <v>142</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.41388888888888892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>4343</v>
+      </c>
+      <c r="B73">
+        <v>125</v>
+      </c>
+      <c r="C73">
+        <v>52</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>4347</v>
+      </c>
+      <c r="B74">
+        <v>125</v>
+      </c>
+      <c r="C74">
+        <v>62</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>4348</v>
+      </c>
+      <c r="B75">
+        <v>125</v>
+      </c>
+      <c r="C75">
+        <v>92</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>4349</v>
+      </c>
+      <c r="B76">
+        <v>125</v>
+      </c>
+      <c r="C76">
+        <v>122</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>4350</v>
+      </c>
+      <c r="B77">
+        <v>125</v>
+      </c>
+      <c r="C77">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>4351</v>
+      </c>
+      <c r="B78">
+        <v>125</v>
+      </c>
+      <c r="C78">
+        <v>52</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>4352</v>
+      </c>
+      <c r="B79">
+        <v>125</v>
+      </c>
+      <c r="C79">
+        <v>132</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>4353</v>
+      </c>
+      <c r="B80">
+        <v>125</v>
+      </c>
+      <c r="C80">
+        <v>142</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>4354</v>
+      </c>
+      <c r="B81">
+        <v>125</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.52708333333333335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>4355</v>
+      </c>
+      <c r="B82">
+        <v>125</v>
+      </c>
+      <c r="C82">
+        <v>42</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>4360</v>
+      </c>
+      <c r="B83">
+        <v>125</v>
+      </c>
+      <c r="C83">
+        <v>52</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>4361</v>
+      </c>
+      <c r="B84">
+        <v>125</v>
+      </c>
+      <c r="C84">
+        <v>42</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>4362</v>
+      </c>
+      <c r="B85">
+        <v>125</v>
+      </c>
+      <c r="C85">
+        <v>122</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.40486111111111112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>4365</v>
+      </c>
+      <c r="B86">
+        <v>125</v>
+      </c>
+      <c r="C86">
+        <v>62</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>4366</v>
+      </c>
+      <c r="B87">
+        <v>125</v>
+      </c>
+      <c r="C87">
+        <v>142</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>4367</v>
+      </c>
+      <c r="B88">
+        <v>125</v>
+      </c>
+      <c r="C88">
+        <v>92</v>
+      </c>
+      <c r="D88" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>4368</v>
+      </c>
+      <c r="B89">
+        <v>125</v>
+      </c>
+      <c r="C89">
+        <v>132</v>
+      </c>
+      <c r="D89" s="1">
+        <v>43285</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
